--- a/portfolio_performance/data/Investitionen.xlsx
+++ b/portfolio_performance/data/Investitionen.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BEBDB686-9A94-4CAF-A0C9-397A220A4F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516E9E54-61B1-4EF9-BF22-AC1DDD8EFA69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investitionen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$105</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="55">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -179,12 +179,24 @@
   </si>
   <si>
     <t>iShares STOXX Europe 600 Travel &amp; Leisure UCITS ETF (DE)</t>
+  </si>
+  <si>
+    <t>American Water Works Co Inc</t>
+  </si>
+  <si>
+    <t>Einlage Investitionen:</t>
+  </si>
+  <si>
+    <t>Entnahme ING Investieren:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,9 +674,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1019,30 +1033,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +1068,7 @@
         <v>-4880</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1063,8 +1078,15 @@
       <c r="D3">
         <v>-770</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUMIFS(D:D,A:A,"")</f>
+        <v>-49693.379999999976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1074,8 +1096,15 @@
       <c r="D4">
         <v>-395</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3">
+        <f>SUMIFS(D:D,A:A,"d")+SUMIFS(D:D,A:A,"x")</f>
+        <v>6762.6999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1114,9 @@
       <c r="D5" s="1">
         <v>-2340</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1127,7 @@
         <v>-837</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1138,7 @@
         <v>-132.56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1149,7 @@
         <v>-223.45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1160,7 @@
         <v>-303.14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1174,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1188,7 @@
         <v>-385.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1202,7 @@
         <v>-507.35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1216,7 @@
         <v>-887.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1200,7 +1230,7 @@
         <v>-280.77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1244,7 @@
         <v>413.76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2232,14 +2262,17 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="1">
-        <v>-1015.87</v>
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>16.48</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2247,17 +2280,73 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>-1015.87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
         <v>6.42</v>
       </c>
     </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>-1149.1500000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="117" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D101"/>
+  <autoFilter ref="A1:D105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>